--- a/data/case1/12/P_device_14.xlsx
+++ b/data/case1/12/P_device_14.xlsx
@@ -56,40 +56,40 @@
   <dimension ref="A1:B5"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="true"/>
-    <col min="2" max="2" width="14.42578125" customWidth="true"/>
+    <col min="1" max="1" width="15.42578125" customWidth="true"/>
+    <col min="2" max="2" width="13.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.035993386534015966</v>
+        <v>-0.012450511837000217</v>
       </c>
       <c r="B1" s="0">
-        <v>0.03599338596698673</v>
+        <v>0.012450511549646057</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.023093583552953292</v>
+        <v>-0.0069591349064320887</v>
       </c>
       <c r="B2" s="0">
-        <v>-0.023093584153588944</v>
+        <v>0.0069591346099887033</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.016389379028673365</v>
+        <v>-0.041315594993300155</v>
       </c>
       <c r="B3" s="0">
-        <v>0.016389378419677015</v>
+        <v>0.041315594699510703</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.03544962401570273</v>
+        <v>0.051833448318476472</v>
       </c>
       <c r="B4" s="0">
-        <v>-0.035449624605567269</v>
+        <v>-0.051833448610635276</v>
       </c>
     </row>
     <row r="5">
